--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,6 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>Dll4</t>
-  </si>
-  <si>
-    <t>Notch2</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -97,7 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
+  </si>
+  <si>
+    <t>Dll4</t>
+  </si>
+  <si>
+    <t>Notch2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H2">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I2">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J2">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>48.19260190976782</v>
+        <v>49.61675716397449</v>
       </c>
       <c r="R2">
-        <v>48.19260190976782</v>
+        <v>198.467028655898</v>
       </c>
       <c r="S2">
-        <v>0.005027748312092259</v>
+        <v>0.004808065949245249</v>
       </c>
       <c r="T2">
-        <v>0.005027748312092259</v>
+        <v>0.002812041079371715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H3">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I3">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J3">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>612.4569477995402</v>
+        <v>650.2849133920341</v>
       </c>
       <c r="R3">
-        <v>612.4569477995402</v>
+        <v>3901.709480352205</v>
       </c>
       <c r="S3">
-        <v>0.06389527154590501</v>
+        <v>0.06301525791085541</v>
       </c>
       <c r="T3">
-        <v>0.06389527154590501</v>
+        <v>0.05528256966827126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H4">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I4">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J4">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>1633.013984858635</v>
+        <v>1695.908176359214</v>
       </c>
       <c r="R4">
-        <v>1633.013984858635</v>
+        <v>10175.44905815528</v>
       </c>
       <c r="S4">
-        <v>0.1703660516476897</v>
+        <v>0.164340412833747</v>
       </c>
       <c r="T4">
-        <v>0.1703660516476897</v>
+        <v>0.1441739766366808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H5">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I5">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J5">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>1949.850380418749</v>
+        <v>1982.712238767054</v>
       </c>
       <c r="R5">
-        <v>1949.850380418749</v>
+        <v>11896.27343260233</v>
       </c>
       <c r="S5">
-        <v>0.2034203709801326</v>
+        <v>0.1921328951600524</v>
       </c>
       <c r="T5">
-        <v>0.2034203709801326</v>
+        <v>0.1685560055515144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H6">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I6">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J6">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>63.28694616715492</v>
+        <v>66.66940483745684</v>
       </c>
       <c r="R6">
-        <v>63.28694616715492</v>
+        <v>400.016429024741</v>
       </c>
       <c r="S6">
-        <v>0.006602483040138467</v>
+        <v>0.006460536995516643</v>
       </c>
       <c r="T6">
-        <v>0.006602483040138467</v>
+        <v>0.005667755689492576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.8280179189665</v>
+        <v>39.2808935</v>
       </c>
       <c r="H7">
-        <v>38.8280179189665</v>
+        <v>78.561787</v>
       </c>
       <c r="I7">
-        <v>0.560016188701374</v>
+        <v>0.5430557228788483</v>
       </c>
       <c r="J7">
-        <v>0.560016188701374</v>
+        <v>0.4421711788282269</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N7">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O7">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P7">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q7">
-        <v>1061.136348471434</v>
+        <v>1158.863073835005</v>
       </c>
       <c r="R7">
-        <v>1061.136348471434</v>
+        <v>4635.452295340022</v>
       </c>
       <c r="S7">
-        <v>0.110704263175416</v>
+        <v>0.1122985540294315</v>
       </c>
       <c r="T7">
-        <v>0.110704263175416</v>
+        <v>0.06567883020289617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H8">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I8">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J8">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N8">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O8">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P8">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q8">
-        <v>37.86312805318563</v>
+        <v>0.02098096051233333</v>
       </c>
       <c r="R8">
-        <v>37.86312805318563</v>
+        <v>0.125885763074</v>
       </c>
       <c r="S8">
-        <v>0.003950114138190017</v>
+        <v>2.033140567579333E-06</v>
       </c>
       <c r="T8">
-        <v>0.003950114138190017</v>
+        <v>1.783651115601176E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H9">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I9">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J9">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N9">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P9">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q9">
-        <v>481.1845578500938</v>
+        <v>0.2749797219627778</v>
       </c>
       <c r="R9">
-        <v>481.1845578500938</v>
+        <v>2.474817497665</v>
       </c>
       <c r="S9">
-        <v>0.05020012932825946</v>
+        <v>2.664665555495266E-05</v>
       </c>
       <c r="T9">
-        <v>0.05020012932825946</v>
+        <v>3.506521216402098E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H10">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I10">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J10">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N10">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O10">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P10">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q10">
-        <v>1282.998119443999</v>
+        <v>0.7171323664532223</v>
       </c>
       <c r="R10">
-        <v>1282.998119443999</v>
+        <v>6.454191298079</v>
       </c>
       <c r="S10">
-        <v>0.1338502461753302</v>
+        <v>6.94930485047686E-05</v>
       </c>
       <c r="T10">
-        <v>0.1338502461753302</v>
+        <v>9.144819261535433E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H11">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I11">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J11">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N11">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O11">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P11">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q11">
-        <v>1531.924646371589</v>
+        <v>0.838410439670889</v>
       </c>
       <c r="R11">
-        <v>1531.924646371589</v>
+        <v>7.545693957038001</v>
       </c>
       <c r="S11">
-        <v>0.1598197907942006</v>
+        <v>8.124538798759396E-05</v>
       </c>
       <c r="T11">
-        <v>0.1598197907942006</v>
+        <v>0.0001069134834297687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>30.5057240376814</v>
+        <v>0.01661033333333333</v>
       </c>
       <c r="H12">
-        <v>30.5057240376814</v>
+        <v>0.049831</v>
       </c>
       <c r="I12">
-        <v>0.439983811298626</v>
+        <v>0.0002296367463126052</v>
       </c>
       <c r="J12">
-        <v>0.439983811298626</v>
+        <v>0.0002804650053618227</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N12">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O12">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P12">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q12">
-        <v>49.7221907899597</v>
+        <v>0.02819184949255556</v>
       </c>
       <c r="R12">
-        <v>49.7221907899597</v>
+        <v>0.253726645433</v>
       </c>
       <c r="S12">
-        <v>0.005187324421408346</v>
+        <v>2.73190509293948E-06</v>
       </c>
       <c r="T12">
-        <v>0.005187324421408346</v>
+        <v>3.595003939550211E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01661033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.049831</v>
+      </c>
+      <c r="I13">
+        <v>0.0002296367463126052</v>
+      </c>
+      <c r="J13">
+        <v>0.0002804650053618227</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.501953</v>
+      </c>
+      <c r="N13">
+        <v>59.003906</v>
+      </c>
+      <c r="O13">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P13">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q13">
+        <v>0.4900372733143334</v>
+      </c>
+      <c r="R13">
+        <v>2.940223639886</v>
+      </c>
+      <c r="S13">
+        <v>4.748660860477119E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.165946209752738E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.018293</v>
+      </c>
+      <c r="H14">
+        <v>0.054879</v>
+      </c>
+      <c r="I14">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J14">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.263127</v>
+      </c>
+      <c r="N14">
+        <v>2.526254</v>
+      </c>
+      <c r="O14">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P14">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q14">
+        <v>0.023106382211</v>
+      </c>
+      <c r="R14">
+        <v>0.138638293266</v>
+      </c>
+      <c r="S14">
+        <v>2.239102590921038E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.964339258154099E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.018293</v>
+      </c>
+      <c r="H15">
+        <v>0.054879</v>
+      </c>
+      <c r="I15">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J15">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N15">
+        <v>49.664215</v>
+      </c>
+      <c r="O15">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P15">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q15">
+        <v>0.3028358283316667</v>
+      </c>
+      <c r="R15">
+        <v>2.725522454985</v>
+      </c>
+      <c r="S15">
+        <v>2.934602577111129E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.861740238705439E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.018293</v>
+      </c>
+      <c r="H16">
+        <v>0.054879</v>
+      </c>
+      <c r="I16">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J16">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N16">
+        <v>129.521609</v>
+      </c>
+      <c r="O16">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P16">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q16">
+        <v>0.7897795978123334</v>
+      </c>
+      <c r="R16">
+        <v>7.108016380311001</v>
+      </c>
+      <c r="S16">
+        <v>7.653286124888515E-05</v>
+      </c>
+      <c r="T16">
+        <v>0.0001007121141967456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>30.5057240376814</v>
-      </c>
-      <c r="H13">
-        <v>30.5057240376814</v>
-      </c>
-      <c r="I13">
-        <v>0.439983811298626</v>
-      </c>
-      <c r="J13">
-        <v>0.439983811298626</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="N13">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="O13">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="P13">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="Q13">
-        <v>833.6952115449136</v>
-      </c>
-      <c r="R13">
-        <v>833.6952115449136</v>
-      </c>
-      <c r="S13">
-        <v>0.08697620644123739</v>
-      </c>
-      <c r="T13">
-        <v>0.08697620644123739</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.018293</v>
+      </c>
+      <c r="H17">
+        <v>0.054879</v>
+      </c>
+      <c r="I17">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J17">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N17">
+        <v>151.425698</v>
+      </c>
+      <c r="O17">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P17">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q17">
+        <v>0.9233434311713334</v>
+      </c>
+      <c r="R17">
+        <v>8.310090880542001</v>
+      </c>
+      <c r="S17">
+        <v>8.947574095184058E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.0001177440761201315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.018293</v>
+      </c>
+      <c r="H18">
+        <v>0.054879</v>
+      </c>
+      <c r="I18">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J18">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N18">
+        <v>5.091743</v>
+      </c>
+      <c r="O18">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P18">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q18">
+        <v>0.03104775156633333</v>
+      </c>
+      <c r="R18">
+        <v>0.279429764097</v>
+      </c>
+      <c r="S18">
+        <v>3.008653641215824E-06</v>
+      </c>
+      <c r="T18">
+        <v>3.9591864742545E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.018293</v>
+      </c>
+      <c r="H19">
+        <v>0.054879</v>
+      </c>
+      <c r="I19">
+        <v>0.0002528995003289009</v>
+      </c>
+      <c r="J19">
+        <v>0.0003088767841153392</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.501953</v>
+      </c>
+      <c r="N19">
+        <v>59.003906</v>
+      </c>
+      <c r="O19">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P19">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q19">
+        <v>0.539679226229</v>
+      </c>
+      <c r="R19">
+        <v>3.238075357374</v>
+      </c>
+      <c r="S19">
+        <v>5.229711612492701E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.587966567899911E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J20">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.263127</v>
+      </c>
+      <c r="N20">
+        <v>2.526254</v>
+      </c>
+      <c r="O20">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P20">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q20">
+        <v>0.3005783323856667</v>
+      </c>
+      <c r="R20">
+        <v>1.803469994314</v>
+      </c>
+      <c r="S20">
+        <v>2.912726521502233E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.555301877481165E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J21">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N21">
+        <v>49.664215</v>
+      </c>
+      <c r="O21">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P21">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q21">
+        <v>3.939426234507223</v>
+      </c>
+      <c r="R21">
+        <v>35.454836110565</v>
+      </c>
+      <c r="S21">
+        <v>0.0003817464546322712</v>
+      </c>
+      <c r="T21">
+        <v>0.0005023527398002269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J22">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N22">
+        <v>129.521609</v>
+      </c>
+      <c r="O22">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P22">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q22">
+        <v>10.27381233006878</v>
+      </c>
+      <c r="R22">
+        <v>92.46431097061901</v>
+      </c>
+      <c r="S22">
+        <v>0.0009955742788649187</v>
+      </c>
+      <c r="T22">
+        <v>0.001310109001913827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J23">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N23">
+        <v>151.425698</v>
+      </c>
+      <c r="O23">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P23">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q23">
+        <v>12.01127144121311</v>
+      </c>
+      <c r="R23">
+        <v>108.101442970918</v>
+      </c>
+      <c r="S23">
+        <v>0.001163941146592511</v>
+      </c>
+      <c r="T23">
+        <v>0.001531668511552266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J24">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N24">
+        <v>5.091743</v>
+      </c>
+      <c r="O24">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P24">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q24">
+        <v>0.4038832780014445</v>
+      </c>
+      <c r="R24">
+        <v>3.634949502013</v>
+      </c>
+      <c r="S24">
+        <v>3.913793539571066E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.150289894662841E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2379636666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.7138910000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.003289831760587828</v>
+      </c>
+      <c r="J25">
+        <v>0.004018009735762016</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.501953</v>
+      </c>
+      <c r="N25">
+        <v>59.003906</v>
+      </c>
+      <c r="O25">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P25">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q25">
+        <v>7.020392909707668</v>
+      </c>
+      <c r="R25">
+        <v>42.122357458246</v>
+      </c>
+      <c r="S25">
+        <v>0.0006803046798873936</v>
+      </c>
+      <c r="T25">
+        <v>0.0005968235647742554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H26">
+        <v>98.201284</v>
+      </c>
+      <c r="I26">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J26">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.263127</v>
+      </c>
+      <c r="N26">
+        <v>2.526254</v>
+      </c>
+      <c r="O26">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P26">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q26">
+        <v>41.34689775168933</v>
+      </c>
+      <c r="R26">
+        <v>248.081386510136</v>
+      </c>
+      <c r="S26">
+        <v>0.004006682873889332</v>
+      </c>
+      <c r="T26">
+        <v>0.003515017353857396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H27">
+        <v>98.201284</v>
+      </c>
+      <c r="I27">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J27">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N27">
+        <v>49.664215</v>
+      </c>
+      <c r="O27">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P27">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q27">
+        <v>541.8988535391178</v>
+      </c>
+      <c r="R27">
+        <v>4877.08968185206</v>
+      </c>
+      <c r="S27">
+        <v>0.05251220705589058</v>
+      </c>
+      <c r="T27">
+        <v>0.06910254376270353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H28">
+        <v>98.201284</v>
+      </c>
+      <c r="I28">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J28">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N28">
+        <v>129.521609</v>
+      </c>
+      <c r="O28">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P28">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q28">
+        <v>1413.243145505106</v>
+      </c>
+      <c r="R28">
+        <v>12719.18830954596</v>
+      </c>
+      <c r="S28">
+        <v>0.1369490195308654</v>
+      </c>
+      <c r="T28">
+        <v>0.1802157278462626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H29">
+        <v>98.201284</v>
+      </c>
+      <c r="I29">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J29">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N29">
+        <v>151.425698</v>
+      </c>
+      <c r="O29">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P29">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q29">
+        <v>1652.244219355137</v>
+      </c>
+      <c r="R29">
+        <v>14870.19797419623</v>
+      </c>
+      <c r="S29">
+        <v>0.1601091974766692</v>
+      </c>
+      <c r="T29">
+        <v>0.2106929692303186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H30">
+        <v>98.201284</v>
+      </c>
+      <c r="I30">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J30">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N30">
+        <v>5.091743</v>
+      </c>
+      <c r="O30">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P30">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q30">
+        <v>55.55730004422356</v>
+      </c>
+      <c r="R30">
+        <v>500.015700398012</v>
+      </c>
+      <c r="S30">
+        <v>0.005383728761068335</v>
+      </c>
+      <c r="T30">
+        <v>0.007084626093172707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>32.73376133333333</v>
+      </c>
+      <c r="H31">
+        <v>98.201284</v>
+      </c>
+      <c r="I31">
+        <v>0.4525420589889848</v>
+      </c>
+      <c r="J31">
+        <v>0.5527086280347149</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.501953</v>
+      </c>
+      <c r="N31">
+        <v>59.003906</v>
+      </c>
+      <c r="O31">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P31">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q31">
+        <v>965.7098883692173</v>
+      </c>
+      <c r="R31">
+        <v>5794.259330215305</v>
+      </c>
+      <c r="S31">
+        <v>0.09358122329060183</v>
+      </c>
+      <c r="T31">
+        <v>0.08209774374840004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.045559</v>
+      </c>
+      <c r="H32">
+        <v>0.091118</v>
+      </c>
+      <c r="I32">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J32">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.263127</v>
+      </c>
+      <c r="N32">
+        <v>2.526254</v>
+      </c>
+      <c r="O32">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P32">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q32">
+        <v>0.057546802993</v>
+      </c>
+      <c r="R32">
+        <v>0.230187211972</v>
+      </c>
+      <c r="S32">
+        <v>5.576519703699315E-06</v>
+      </c>
+      <c r="T32">
+        <v>3.261478243489955E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.045559</v>
+      </c>
+      <c r="H33">
+        <v>0.091118</v>
+      </c>
+      <c r="I33">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J33">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N33">
+        <v>49.664215</v>
+      </c>
+      <c r="O33">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P33">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q33">
+        <v>0.7542173237283334</v>
+      </c>
+      <c r="R33">
+        <v>4.52530394237</v>
+      </c>
+      <c r="S33">
+        <v>7.308673197977693E-05</v>
+      </c>
+      <c r="T33">
+        <v>6.411815941805832E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.045559</v>
+      </c>
+      <c r="H34">
+        <v>0.091118</v>
+      </c>
+      <c r="I34">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J34">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N34">
+        <v>129.521609</v>
+      </c>
+      <c r="O34">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P34">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q34">
+        <v>1.966958328143667</v>
+      </c>
+      <c r="R34">
+        <v>11.801749968862</v>
+      </c>
+      <c r="S34">
+        <v>0.0001906062770260733</v>
+      </c>
+      <c r="T34">
+        <v>0.0001672167208108578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.045559</v>
+      </c>
+      <c r="H35">
+        <v>0.091118</v>
+      </c>
+      <c r="I35">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J35">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N35">
+        <v>151.425698</v>
+      </c>
+      <c r="O35">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P35">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q35">
+        <v>2.299601125060667</v>
+      </c>
+      <c r="R35">
+        <v>13.797606750364</v>
+      </c>
+      <c r="S35">
+        <v>0.0002228407195115566</v>
+      </c>
+      <c r="T35">
+        <v>0.0001954956308955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.045559</v>
+      </c>
+      <c r="H36">
+        <v>0.091118</v>
+      </c>
+      <c r="I36">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J36">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N36">
+        <v>5.091743</v>
+      </c>
+      <c r="O36">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P36">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q36">
+        <v>0.07732490644566667</v>
+      </c>
+      <c r="R36">
+        <v>0.463949438674</v>
+      </c>
+      <c r="S36">
+        <v>7.493098520753933E-06</v>
+      </c>
+      <c r="T36">
+        <v>6.573610181692845E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.045559</v>
+      </c>
+      <c r="H37">
+        <v>0.091118</v>
+      </c>
+      <c r="I37">
+        <v>0.0006298501249376482</v>
+      </c>
+      <c r="J37">
+        <v>0.0005128416118191199</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>29.501953</v>
+      </c>
+      <c r="N37">
+        <v>59.003906</v>
+      </c>
+      <c r="O37">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P37">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q37">
+        <v>1.344079476727</v>
+      </c>
+      <c r="R37">
+        <v>5.376317906908</v>
+      </c>
+      <c r="S37">
+        <v>0.000130246778195788</v>
+      </c>
+      <c r="T37">
+        <v>7.617601226952097E-05</v>
       </c>
     </row>
   </sheetData>
